--- a/WebApplication1/Forms/04_KreynSlewForm.xlsx
+++ b/WebApplication1/Forms/04_KreynSlewForm.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serdar.dal\Desktop\Forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serdar.dal\source\repos\WebApplication1\WebApplication1\Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="4755" windowWidth="28560" windowHeight="10140"/>
+    <workbookView xWindow="120" yWindow="4752" windowWidth="28560" windowHeight="10140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
   <si>
     <t>Vessel name:</t>
   </si>
@@ -85,13 +85,16 @@
   </si>
   <si>
     <t xml:space="preserve">                         Jib at max. outreach                                                       A (front of crane)             B {back of crane)</t>
+  </si>
+  <si>
+    <t>{VesselName}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -135,6 +138,12 @@
       <family val="2"/>
       <charset val="162"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -236,7 +245,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
@@ -260,40 +269,42 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,367 +613,359 @@
   <dimension ref="A2:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:F18"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D2" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="10" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:6" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="10" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:6" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="13"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="10" t="s">
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
+    <row r="25" spans="1:6" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="13"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="17" t="s">
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="10" t="s">
+      <c r="B31" s="9"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A32" s="12" t="s">
+    <row r="32" spans="1:6" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="13"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="17" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="23">
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="F31:F32"/>
@@ -975,6 +978,17 @@
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/WebApplication1/Forms/04_KreynSlewForm.xlsx
+++ b/WebApplication1/Forms/04_KreynSlewForm.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
   <si>
     <t>Vessel name:</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>{VesselName}</t>
+  </si>
+  <si>
+    <t>{END}</t>
   </si>
 </sst>
 </file>
@@ -245,7 +248,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
@@ -272,30 +275,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -305,6 +284,33 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -610,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F36"/>
+  <dimension ref="A2:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -630,7 +636,7 @@
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -662,32 +668,32 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="15"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -695,7 +701,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -705,7 +711,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -715,7 +721,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -725,47 +731,47 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="15"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
@@ -773,7 +779,7 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -783,7 +789,7 @@
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -793,7 +799,7 @@
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -803,47 +809,47 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11" t="s">
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="15"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
@@ -851,7 +857,7 @@
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -861,7 +867,7 @@
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="16" t="s">
+      <c r="F27" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -871,7 +877,7 @@
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -881,91 +887,103 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11" t="s">
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="15"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="16" t="s">
+      <c r="F33" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="16" t="s">
+      <c r="F34" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="16" t="s">
+      <c r="F35" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="17" t="s">
+      <c r="F36" s="9" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G37" s="19" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="23">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="E10:E11"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="F31:F32"/>
@@ -982,13 +1000,6 @@
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
